--- a/test/data_validation_test.xlsx
+++ b/test/data_validation_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limnaroline/forecasting-project/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC7C68A4-E404-8D4F-916F-E5A733960799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{656AB485-610D-A144-873B-753DCAE8D227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="2500" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,9 +46,6 @@
     <t>Planned Amount</t>
   </si>
   <si>
-    <t>Latest Payment Date</t>
-  </si>
-  <si>
     <t>Salary</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>15/20/2025</t>
+  </si>
+  <si>
+    <t>Payment Date</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -501,15 +501,15 @@
         <v>3</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4">
         <v>45658</v>
@@ -524,10 +524,10 @@
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4">
         <v>45689</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4">
         <v>45717</v>
@@ -561,7 +561,7 @@
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4">
         <v>45658</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4">
         <v>45748</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="4">
@@ -610,10 +610,10 @@
     </row>
     <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="4">
         <v>45658</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4">
         <v>45778</v>
@@ -646,10 +646,10 @@
     </row>
     <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4">
         <v>45839</v>
@@ -662,10 +662,10 @@
     </row>
     <row r="11" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4">
         <v>45658</v>
@@ -729,7 +729,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -741,12 +741,12 @@
     <col min="6" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>4</v>
@@ -755,10 +755,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -766,10 +766,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="5">
         <v>5000</v>
@@ -783,10 +783,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="5">
         <v>8000</v>
@@ -800,10 +800,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="5">
         <v>3000</v>
@@ -818,7 +818,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="5">
         <v>12000</v>
@@ -832,10 +832,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="5">
         <v>15000</v>
@@ -849,10 +849,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="5">
         <v>4000</v>
@@ -866,22 +866,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="5">
         <v>8000</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="5">
         <v>10000</v>
@@ -895,10 +895,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="5">
         <v>6000</v>
@@ -912,10 +912,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="5">
         <v>15000</v>
@@ -929,10 +929,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="5">
         <v>12000</v>
@@ -946,10 +946,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5">
         <v>5000</v>
@@ -963,10 +963,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="5">
         <v>10000</v>
@@ -980,13 +980,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="E15" s="4">
         <v>46011</v>
@@ -997,10 +997,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="5">
         <v>15000</v>

--- a/test/data_validation_test.xlsx
+++ b/test/data_validation_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limnaroline/forecasting-project/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{656AB485-610D-A144-873B-753DCAE8D227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{295D39B6-6181-4E40-BD74-DD7D2CCFBB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="2500" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
   <si>
     <t>Allowed Categories</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>qq</t>
-  </si>
-  <si>
-    <t>15/20/2025</t>
   </si>
   <si>
     <t>Payment Date</t>
@@ -729,7 +726,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -755,7 +752,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>14</v>
@@ -872,8 +869,8 @@
       <c r="D8" s="5">
         <v>8000</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>22</v>
+      <c r="E8" s="4">
+        <v>45703</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
